--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2168801.840707747</v>
+        <v>-2171370.264146694</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F11" t="n">
-        <v>180.2670686242295</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>1.806535768372162</v>
       </c>
       <c r="H11" t="n">
         <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844563</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369548</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.694256693732</v>
+        <v>9.134785519357365</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
         <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>73.75220394037034</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
         <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535776</v>
+        <v>69.43120408535773</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>62.01093634556698</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069615</v>
@@ -1582,13 +1582,13 @@
         <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993476</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -1613,7 +1613,7 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F14" t="n">
         <v>379.9548294172311</v>
@@ -1622,10 +1622,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>147.0871634375323</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W14" t="n">
-        <v>292.6780749993377</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9107638574569</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>42.53569677664574</v>
+        <v>6.798302711348519</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
         <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
         <v>117.8337985898404</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556698</v>
+        <v>62.01093634556697</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069615</v>
@@ -1819,19 +1819,19 @@
         <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V16" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
         <v>280.7866886776101</v>
@@ -1853,7 +1853,7 @@
         <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
-        <v>253.7984563352515</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
         <v>337.0253727103806</v>
@@ -1898,10 +1898,10 @@
         <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>97.91758255244113</v>
       </c>
       <c r="W17" t="n">
         <v>275.3446157743401</v>
@@ -1910,7 +1910,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5462653085809</v>
+        <v>92.12945531595531</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676518</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697443</v>
+        <v>77.45260971960009</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
@@ -2056,7 +2056,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2065,7 +2065,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6883004090219</v>
@@ -2081,7 +2081,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C20" t="n">
-        <v>254.1741445728816</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
         <v>280.7866886776101</v>
@@ -2096,7 +2096,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>183.5090171891949</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7672781481805</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595533</v>
+        <v>92.12945531595531</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676518</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697443</v>
+        <v>77.45260971960009</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2293,7 +2293,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2302,7 +2302,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6883004090219</v>
@@ -2318,7 +2318,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
         <v>280.7866886776101</v>
@@ -2333,7 +2333,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D25" t="n">
-        <v>137.135930067765</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595533</v>
+        <v>154.5462653085809</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676518</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S25" t="n">
         <v>115.872672388369</v>
@@ -2530,7 +2530,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
@@ -2539,7 +2539,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6883004090219</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1953.110595174608</v>
+        <v>1768.760885308345</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.341226036701</v>
+        <v>1426.991516170439</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.268675232456</v>
+        <v>1095.918965366194</v>
       </c>
       <c r="E11" t="n">
-        <v>921.6735704367175</v>
+        <v>737.3238605704549</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314349</v>
+        <v>353.5311035833528</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789367</v>
+        <v>351.7063199789364</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020929</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5054,37 +5054,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2837.386372201842</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.736082068105</v>
+        <v>2837.386372201842</v>
       </c>
       <c r="W11" t="n">
-        <v>3021.736082068105</v>
+        <v>2837.386372201842</v>
       </c>
       <c r="X11" t="n">
-        <v>2675.46347160953</v>
+        <v>2491.113761743268</v>
       </c>
       <c r="Y11" t="n">
-        <v>2312.517287436224</v>
+        <v>2128.167577569961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7861517935485</v>
+        <v>645.8221751691966</v>
       </c>
       <c r="C13" t="n">
-        <v>572.7861517935485</v>
+        <v>645.8221751691966</v>
       </c>
       <c r="D13" t="n">
-        <v>449.8626601837184</v>
+        <v>636.5951190890377</v>
       </c>
       <c r="E13" t="n">
-        <v>449.8626601837184</v>
+        <v>515.87517330915</v>
       </c>
       <c r="F13" t="n">
-        <v>330.1658604883132</v>
+        <v>396.1783736137451</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909694</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113326</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504665</v>
       </c>
       <c r="L13" t="n">
         <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
@@ -5224,25 +5224,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T13" t="n">
         <v>1718.807067939773</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.897348867922</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.40600846454</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="W13" t="n">
-        <v>967.181986230085</v>
+        <v>1194.673326633467</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3855831345732</v>
+        <v>993.8769235379556</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7861517935485</v>
+        <v>800.2774921969309</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1169.256726576029</v>
+        <v>1691.228474690937</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.256726576029</v>
+        <v>1691.228474690937</v>
       </c>
       <c r="D14" t="n">
-        <v>838.1841757717838</v>
+        <v>1360.155923886692</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1841757717838</v>
+        <v>1001.560819090953</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3914187846816</v>
+        <v>617.7680621038511</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>229.888759751353</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31586739020943</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508300938772</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125499</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386372201841</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516632660775</v>
+        <v>2759.853961584435</v>
       </c>
       <c r="W14" t="n">
-        <v>2237.882213469527</v>
+        <v>2759.853961584435</v>
       </c>
       <c r="X14" t="n">
-        <v>1891.609603010952</v>
+        <v>2413.58135112586</v>
       </c>
       <c r="Y14" t="n">
-        <v>1528.663418837645</v>
+        <v>2050.635166952554</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3308347658146</v>
+        <v>766.3855831345735</v>
       </c>
       <c r="C16" t="n">
-        <v>375.3654844863744</v>
+        <v>759.518610698868</v>
       </c>
       <c r="D16" t="n">
-        <v>375.3654844863744</v>
+        <v>636.5951190890377</v>
       </c>
       <c r="E16" t="n">
-        <v>375.3654844863744</v>
+        <v>515.87517330915</v>
       </c>
       <c r="F16" t="n">
-        <v>255.6686847909695</v>
+        <v>396.1783736137451</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>255.6686847909694</v>
       </c>
       <c r="H16" t="n">
         <v>136.6446458113327</v>
@@ -5434,7 +5434,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403544</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
         <v>368.9259401504664</v>
@@ -5458,28 +5458,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.87327193841</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867922</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.40600846454</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1819862300852</v>
+        <v>967.1819862300861</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3855831345736</v>
+        <v>766.3855831345735</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7861517935489</v>
+        <v>766.3855831345735</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.332808477248</v>
+        <v>1855.313855409961</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.013072287415</v>
+        <v>1560.994119220128</v>
       </c>
       <c r="D17" t="n">
-        <v>1197.390154431243</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>886.2446825835771</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F17" t="n">
         <v>629.8826054772625</v>
@@ -5522,7 +5522,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021644</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>3158.622967021644</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.735271046061</v>
+        <v>3059.716317978774</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.609396526525</v>
+        <v>2781.590443459238</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.786419016024</v>
+        <v>2482.767465948737</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.289867790792</v>
+        <v>2167.270914723504</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877565</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8680958312623</v>
+        <v>474.8208130104283</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3942371695052</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1239243376908</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8767575903591</v>
+        <v>253.8294747695252</v>
       </c>
       <c r="G19" t="n">
         <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325938</v>
+        <v>89.19501286325936</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106871596599</v>
+        <v>1849.059588775765</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673275</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370332</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.390857094189</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078076</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603689</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674175</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1817.735679394757</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220129</v>
+        <v>1523.415943204924</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>1239.793025348752</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162917</v>
+        <v>928.6475535010867</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772628</v>
+        <v>592.3044294620579</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728375</v>
+        <v>251.8747600576328</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5753,7 +5753,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
         <v>3158.622967021645</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877565</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104284</v>
+        <v>474.8208130104283</v>
       </c>
       <c r="D22" t="n">
         <v>399.3469543486713</v>
@@ -5896,13 +5896,13 @@
         <v>326.0766415168569</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695252</v>
       </c>
       <c r="G22" t="n">
         <v>160.7694188948229</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325938</v>
+        <v>89.19501286325936</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106871596599</v>
+        <v>1849.059588775765</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673275</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.390857094189</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078076</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603689</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674175</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073753</v>
+        <v>1862.179185073752</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85944888392</v>
+        <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027748</v>
+        <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800823</v>
+        <v>973.0910591800819</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410534</v>
+        <v>636.7479351410529</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366275</v>
+        <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9799091902983</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.51131751896</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
         <v>1917.043222190885</v>
@@ -6008,7 +6008,7 @@
         <v>3361.568876486182</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241865</v>
+        <v>3609.855238241864</v>
       </c>
       <c r="R23" t="n">
         <v>3668.872304798667</v>
@@ -6017,7 +6017,7 @@
         <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
         <v>3323.001754235557</v>
@@ -6029,10 +6029,10 @@
         <v>2788.45577312303</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612529</v>
+        <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387296</v>
+        <v>2174.136244387295</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409184144899</v>
+        <v>948.4091841448986</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956154863772</v>
+        <v>773.9561548637716</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0217452025208</v>
+        <v>625.0217452025204</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7842901970653</v>
+        <v>465.7842901970648</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2497322239503</v>
+        <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565688</v>
+        <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443577</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J24" t="n">
-        <v>167.054715586591</v>
+        <v>167.0547155865907</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669384</v>
+        <v>405.3189145669381</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796038</v>
+        <v>772.0170748796035</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.29340010192</v>
+        <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816443656374</v>
@@ -6087,7 +6087,7 @@
         <v>2414.277314550532</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.918872197132</v>
+        <v>2571.918872197131</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774518789647</v>
@@ -6096,19 +6096,19 @@
         <v>2442.336632283127</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693631960983</v>
+        <v>2249.693631960982</v>
       </c>
       <c r="U24" t="n">
         <v>2021.625785095398</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473676863656</v>
+        <v>1786.473676863655</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236320135454</v>
+        <v>1532.236320135453</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.384819929921</v>
+        <v>1324.38481992992</v>
       </c>
       <c r="Y24" t="n">
         <v>1116.624521164967</v>
@@ -6127,22 +6127,22 @@
         <v>544.7334254950522</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>469.2595668332951</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>395.9892540014807</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>323.7420872541491</v>
       </c>
       <c r="G25" t="n">
         <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704931</v>
+        <v>96.06034252704929</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6230,43 +6230,43 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,10 +6388,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,64 +6449,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>887.9771891384785</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386887</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
         <v>413.0883853676538</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,10 +6616,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973141</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6710,40 +6710,40 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O32" t="n">
-        <v>3015.155006854131</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3728.510094301078</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
         <v>1910.743863481264</v>
@@ -7114,31 +7114,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O38" t="n">
-        <v>3182.560655874485</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P38" t="n">
-        <v>3577.335022231663</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7315,28 +7315,28 @@
         <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>810.8729904741863</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.992678104634</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776558</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.303399835341</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7549,13 +7549,13 @@
         <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973142</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,16 +7588,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7625,16 +7625,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226677</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7676,13 +7676,13 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7819,37 +7819,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764237</v>
+        <v>212.1614152764238</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188446</v>
+        <v>225.9304893188448</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603988</v>
+        <v>219.401870760399</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030243</v>
+        <v>218.2916099030245</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661493</v>
+        <v>219.5965380661495</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111184</v>
+        <v>222.2700605111186</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>123.6869003357296</v>
       </c>
       <c r="K6" t="n">
-        <v>132.456345834481</v>
+        <v>132.4563458344811</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915384</v>
+        <v>131.3134574915385</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437705</v>
+        <v>133.6842191437706</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511138</v>
+        <v>122.668255851114</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891803</v>
+        <v>134.6617264891804</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357712</v>
+        <v>127.6062572357713</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369108</v>
+        <v>135.7248343369109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>130.7280129970312</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216063</v>
+        <v>134.5431653216064</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145264</v>
+        <v>123.4071347145265</v>
       </c>
       <c r="O7" t="n">
         <v>134.5047345663804</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15.65373240429625</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.7991449754606</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>117.9051702753175</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.7498204251477</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>174.4519134245563</v>
+        <v>209.1187564935596</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>40.02214132148703</v>
       </c>
       <c r="L41" t="n">
-        <v>343.5485285966302</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>306.6874953089257</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>199.6877607930016</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.1939735606009</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369549</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151403</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>112.5594711743746</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.35238799417753</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>120.5993846253078</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>29.64167739359499</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>97.78990799750173</v>
+        <v>133.527302062799</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>79.18123646338707</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>155.9383229746209</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>37.20239425505309</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>37.20239425505261</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26320,22 +26320,22 @@
         <v>102410.9431900586</v>
       </c>
       <c r="E2" t="n">
-        <v>91192.73628160491</v>
+        <v>91192.73628160494</v>
       </c>
       <c r="F2" t="n">
         <v>91192.73628160488</v>
       </c>
       <c r="G2" t="n">
-        <v>99316.50167023037</v>
+        <v>99316.50167023035</v>
       </c>
       <c r="H2" t="n">
-        <v>99316.50167023034</v>
+        <v>99316.50167023035</v>
       </c>
       <c r="I2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330352</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330354</v>
@@ -26350,10 +26350,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945329</v>
+        <v>14118.19859945303</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072303</v>
+        <v>16714.64353072328</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487404</v>
@@ -26387,19 +26387,19 @@
         <v>22820.44161905851</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.154320027</v>
+        <v>426739.1543200271</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210907</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210907</v>
       </c>
       <c r="G4" t="n">
         <v>74613.22686521037</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521034</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913913</v>
+        <v>85473.0036591391</v>
       </c>
       <c r="J4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="O4" t="n">
         <v>80755.36360646595</v>
       </c>
-      <c r="K4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="L4" t="n">
-        <v>80755.36360646598</v>
-      </c>
-      <c r="M4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646592</v>
-      </c>
       <c r="P4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646594</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657602</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657604</v>
@@ -26497,7 +26497,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362116.5671030461</v>
+        <v>-362120.9806809142</v>
       </c>
       <c r="C6" t="n">
-        <v>-372412.7830010884</v>
+        <v>-372417.1841755586</v>
       </c>
       <c r="D6" t="n">
-        <v>-370289.7550642143</v>
+        <v>-370294.1406250741</v>
       </c>
       <c r="E6" t="n">
-        <v>-1140131.152589</v>
+        <v>-1140359.902288029</v>
       </c>
       <c r="F6" t="n">
-        <v>-22962.31111708035</v>
+        <v>-23191.06081610883</v>
       </c>
       <c r="G6" t="n">
-        <v>-93395.56754681854</v>
+        <v>-93461.84193807465</v>
       </c>
       <c r="H6" t="n">
-        <v>-55815.45825194452</v>
+        <v>-55881.73264320058</v>
       </c>
       <c r="I6" t="n">
-        <v>-91399.60764660718</v>
+        <v>-91399.6076466071</v>
       </c>
       <c r="J6" t="n">
-        <v>-92913.52677551797</v>
+        <v>-92913.52677551779</v>
       </c>
       <c r="K6" t="n">
-        <v>-67503.08404823672</v>
+        <v>-67503.08404823666</v>
       </c>
       <c r="L6" t="n">
-        <v>-105083.1933431108</v>
+        <v>-105083.1933431107</v>
       </c>
       <c r="M6" t="n">
-        <v>-274691.6523403096</v>
+        <v>-274691.6523403098</v>
       </c>
       <c r="N6" t="n">
-        <v>-67503.08404823684</v>
+        <v>-67503.08404823666</v>
       </c>
       <c r="O6" t="n">
-        <v>-67503.08404823672</v>
+        <v>-67503.08404823682</v>
       </c>
       <c r="P6" t="n">
         <v>-67503.08404823682</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
@@ -26722,10 +26722,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953732</v>
+        <v>15.50424729953705</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996668</v>
+        <v>917.2180761996667</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953732</v>
+        <v>15.50424729953705</v>
       </c>
       <c r="D3" t="n">
-        <v>19.517013419588</v>
+        <v>19.51701341958828</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81662079737407</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096108</v>
+        <v>338.8364790096109</v>
       </c>
       <c r="I5" t="n">
         <v>208.072964971349</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593852292</v>
+        <v>6.659224593852387</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116784358</v>
+        <v>3.259908116784478</v>
       </c>
       <c r="R5" t="n">
-        <v>145.953866988669</v>
+        <v>145.9538669886691</v>
       </c>
       <c r="S5" t="n">
         <v>207.599755876343</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234556</v>
+        <v>88.24844095234559</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573511</v>
+        <v>98.08728580573515</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.609687221244</v>
+        <v>154.6096872212441</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997603</v>
+        <v>91.38251566997606</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263553</v>
+        <v>19.02122493263558</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946425</v>
+        <v>83.8209019094643</v>
       </c>
       <c r="R7" t="n">
         <v>176.0362765059644</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448036</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G19" t="n">
-        <v>11.47954295044735</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044724</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C22" t="n">
-        <v>11.47954295044738</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044724</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D25" t="n">
-        <v>11.47954295044738</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044732</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.062328632359949</v>
+        <v>0.06232863235994787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563278</v>
+        <v>0.6383231061563164</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599056936</v>
+        <v>2.402924599056893</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760226</v>
+        <v>5.290064760760131</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768556868</v>
+        <v>7.928435768556725</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651142659</v>
+        <v>9.835925651142482</v>
       </c>
       <c r="M5" t="n">
-        <v>10.9443624668739</v>
+        <v>10.94436246687371</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356661</v>
+        <v>11.12145369356641</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553737</v>
+        <v>10.50167335553718</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151122</v>
+        <v>8.962935244150961</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760447</v>
+        <v>6.730791097760326</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480649</v>
+        <v>3.915250952480579</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902339</v>
+        <v>1.420313709902314</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556769</v>
+        <v>0.2728435881556719</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588795918</v>
+        <v>0.004986290588795829</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240104</v>
+        <v>0.03334875834240044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976752943</v>
+        <v>0.3220787976752885</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069509</v>
+        <v>1.148191899069489</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937109</v>
+        <v>3.150726330937053</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139877978</v>
+        <v>5.385093139877881</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288335805</v>
+        <v>7.240922288335675</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778247841</v>
+        <v>8.449814778247688</v>
       </c>
       <c r="N6" t="n">
-        <v>8.67345623221947</v>
+        <v>8.673456232219314</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264162</v>
+        <v>7.934517955264019</v>
       </c>
       <c r="P6" t="n">
-        <v>6.36815017855902</v>
+        <v>6.368150178558905</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110701</v>
+        <v>4.256939749110625</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908023</v>
+        <v>2.070548346907986</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617031</v>
+        <v>0.6194385595616919</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573094</v>
+        <v>0.134418898757307</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00219399725936849</v>
+        <v>0.002193997259368451</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687058</v>
+        <v>0.02795847873687008</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696314</v>
+        <v>0.2485762927696269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060142538</v>
+        <v>0.8407877060142386</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669675</v>
+        <v>1.976664446696714</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247327</v>
+        <v>3.248266893247268</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207105</v>
+        <v>4.15666328420703</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998721</v>
+        <v>4.382618625998643</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750706753</v>
+        <v>4.278409750706676</v>
       </c>
       <c r="O7" t="n">
-        <v>3.9518038854624</v>
+        <v>3.951803885462329</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230237</v>
+        <v>3.381450919230176</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230136</v>
+        <v>2.341141342230094</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205108</v>
+        <v>1.257114871205085</v>
       </c>
       <c r="S7" t="n">
-        <v>0.487240033987099</v>
+        <v>0.4872400339870902</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546029925</v>
+        <v>0.1194589546029903</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102033</v>
+        <v>0.001525007931102006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32561,13 +32561,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754658</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179641</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.27434654712</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695907</v>
+        <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
         <v>105.315454862374</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P16" t="n">
         <v>261.8782874695908</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>471.2438467966284</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7202608056874</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36598,16 +36598,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
-        <v>814.7404961971442</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36756,7 +36756,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>455.096456830718</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.5441252288672</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,22 +37312,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37549,22 +37549,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>425.2462182282758</v>
+        <v>459.9130612972791</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768875</v>
       </c>
       <c r="L41" t="n">
-        <v>799.1386429889624</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>845.6086111391525</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412332</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
